--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna1-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna1-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Epha7</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H2">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I2">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J2">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.014513</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N2">
-        <v>0.043539</v>
+        <v>0.726421</v>
       </c>
       <c r="O2">
-        <v>0.006538124153480057</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="P2">
-        <v>0.009244530017173054</v>
+        <v>0.8091041635804498</v>
       </c>
       <c r="Q2">
-        <v>0.296750968276</v>
+        <v>3.396305918429444</v>
       </c>
       <c r="R2">
-        <v>2.670758714484</v>
+        <v>30.566753265865</v>
       </c>
       <c r="S2">
-        <v>0.005687609399923271</v>
+        <v>0.5955565133671136</v>
       </c>
       <c r="T2">
-        <v>0.008107997269157927</v>
+        <v>0.6612634480499743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,60 +599,60 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H3">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I3">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J3">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.2421403333333333</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="N3">
-        <v>0.726421</v>
+        <v>0.171388</v>
       </c>
       <c r="O3">
-        <v>0.1090845147039467</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="P3">
-        <v>0.154239204841748</v>
+        <v>0.1908958364195503</v>
       </c>
       <c r="Q3">
-        <v>4.951104415030666</v>
+        <v>1.201960183036667</v>
       </c>
       <c r="R3">
-        <v>44.559939735276</v>
+        <v>7.21176109822</v>
       </c>
       <c r="S3">
-        <v>0.0948942076736182</v>
+        <v>0.2107687684819744</v>
       </c>
       <c r="T3">
-        <v>0.1352768663556574</v>
+        <v>0.1560150654157699</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,60 +661,60 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.447252</v>
+        <v>2.483247333333333</v>
       </c>
       <c r="H4">
-        <v>61.341756</v>
+        <v>7.449742</v>
       </c>
       <c r="I4">
-        <v>0.8699145605694745</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J4">
-        <v>0.8770588936480435</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.013551</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N4">
-        <v>0.04065299999999999</v>
+        <v>0.726421</v>
       </c>
       <c r="O4">
-        <v>0.006104741983312082</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="P4">
-        <v>0.008631752653669953</v>
+        <v>0.8091041635804498</v>
       </c>
       <c r="Q4">
-        <v>0.277080711852</v>
+        <v>0.6012943370424444</v>
       </c>
       <c r="R4">
-        <v>2.493726406667999</v>
+        <v>5.411649033382</v>
       </c>
       <c r="S4">
-        <v>0.005310603939802952</v>
+        <v>0.1054394885140343</v>
       </c>
       <c r="T4">
-        <v>0.007570555432671332</v>
+        <v>0.117072482913871</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,542 +723,294 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.447252</v>
+        <v>2.483247333333333</v>
       </c>
       <c r="H5">
-        <v>61.341756</v>
+        <v>7.449742</v>
       </c>
       <c r="I5">
-        <v>0.8699145605694745</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J5">
-        <v>0.8770588936480435</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.9495455</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="N5">
-        <v>3.899091</v>
+        <v>0.171388</v>
       </c>
       <c r="O5">
-        <v>0.878272619159261</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="P5">
-        <v>0.827884512487409</v>
+        <v>0.1908958364195503</v>
       </c>
       <c r="Q5">
-        <v>39.862848123966</v>
+        <v>0.2127993969826667</v>
       </c>
       <c r="R5">
-        <v>239.177088743796</v>
+        <v>1.276796381896</v>
       </c>
       <c r="S5">
-        <v>0.76402213955613</v>
+        <v>0.03731526839968143</v>
       </c>
       <c r="T5">
-        <v>0.7261034745905568</v>
+        <v>0.0276214739133953</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1863673333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.559102</v>
+      </c>
+      <c r="I6">
+        <v>0.01071372271683668</v>
+      </c>
+      <c r="J6">
+        <v>0.01085925937435662</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.483247333333333</v>
-      </c>
-      <c r="H6">
-        <v>7.449742</v>
-      </c>
-      <c r="I6">
-        <v>0.105648084777455</v>
-      </c>
-      <c r="J6">
-        <v>0.1065157390747562</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.014513</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N6">
-        <v>0.043539</v>
+        <v>0.726421</v>
       </c>
       <c r="O6">
-        <v>0.006538124153480057</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="P6">
-        <v>0.009244530017173054</v>
+        <v>0.8091041635804498</v>
       </c>
       <c r="Q6">
-        <v>0.03603936854866667</v>
+        <v>0.04512704821577777</v>
       </c>
       <c r="R6">
-        <v>0.324354316938</v>
+        <v>0.406143433942</v>
       </c>
       <c r="S6">
-        <v>0.0006907402948523872</v>
+        <v>0.007913217519099807</v>
       </c>
       <c r="T6">
-        <v>0.0009846879471779569</v>
+        <v>0.008786271973191975</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.483247333333333</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H7">
-        <v>7.449742</v>
+        <v>0.559102</v>
       </c>
       <c r="I7">
-        <v>0.105648084777455</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J7">
-        <v>0.1065157390747562</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.2421403333333333</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="N7">
-        <v>0.726421</v>
+        <v>0.171388</v>
       </c>
       <c r="O7">
-        <v>0.1090845147039467</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="P7">
-        <v>0.154239204841748</v>
+        <v>0.1908958364195503</v>
       </c>
       <c r="Q7">
-        <v>0.6012943370424444</v>
+        <v>0.01597056226266667</v>
       </c>
       <c r="R7">
-        <v>5.411649033382</v>
+        <v>0.095823373576</v>
       </c>
       <c r="S7">
-        <v>0.0115245700573501</v>
+        <v>0.002800505197736873</v>
       </c>
       <c r="T7">
-        <v>0.01642890289802151</v>
+        <v>0.00207298740116465</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6993955000000001</v>
+      </c>
+      <c r="H8">
+        <v>1.398791</v>
+      </c>
+      <c r="I8">
+        <v>0.04020623852035952</v>
+      </c>
+      <c r="J8">
+        <v>0.02716827033263282</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2.483247333333333</v>
-      </c>
-      <c r="H8">
-        <v>7.449742</v>
-      </c>
-      <c r="I8">
-        <v>0.105648084777455</v>
-      </c>
-      <c r="J8">
-        <v>0.1065157390747562</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.013551</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N8">
-        <v>0.04065299999999999</v>
+        <v>0.726421</v>
       </c>
       <c r="O8">
-        <v>0.006104741983312082</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="P8">
-        <v>0.008631752653669953</v>
+        <v>0.8091041635804498</v>
       </c>
       <c r="Q8">
-        <v>0.033650484614</v>
+        <v>0.1693518595018333</v>
       </c>
       <c r="R8">
-        <v>0.3028543615259999</v>
+        <v>1.016111157011</v>
       </c>
       <c r="S8">
-        <v>0.0006449542985974436</v>
+        <v>0.02969656014490864</v>
       </c>
       <c r="T8">
-        <v>0.0009194175134161434</v>
+        <v>0.02198196064341243</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.483247333333333</v>
+        <v>0.6993955000000001</v>
       </c>
       <c r="H9">
-        <v>7.449742</v>
+        <v>1.398791</v>
       </c>
       <c r="I9">
-        <v>0.105648084777455</v>
+        <v>0.04020623852035952</v>
       </c>
       <c r="J9">
-        <v>0.1065157390747562</v>
+        <v>0.02716827033263282</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>1.9495455</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="N9">
-        <v>3.899091</v>
+        <v>0.171388</v>
       </c>
       <c r="O9">
-        <v>0.878272619159261</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="P9">
-        <v>0.827884512487409</v>
+        <v>0.1908958364195503</v>
       </c>
       <c r="Q9">
-        <v>4.841203664087001</v>
+        <v>0.05993399797700001</v>
       </c>
       <c r="R9">
-        <v>29.047221984522</v>
+        <v>0.239735991908</v>
       </c>
       <c r="S9">
-        <v>0.09278782012665505</v>
+        <v>0.01050967837545088</v>
       </c>
       <c r="T9">
-        <v>0.08818273071614063</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.5743975</v>
-      </c>
-      <c r="H10">
-        <v>1.148795</v>
-      </c>
-      <c r="I10">
-        <v>0.02443735465307048</v>
-      </c>
-      <c r="J10">
-        <v>0.01642536727720028</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.014513</v>
-      </c>
-      <c r="N10">
-        <v>0.043539</v>
-      </c>
-      <c r="O10">
-        <v>0.006538124153480057</v>
-      </c>
-      <c r="P10">
-        <v>0.009244530017173054</v>
-      </c>
-      <c r="Q10">
-        <v>0.0083362309175</v>
-      </c>
-      <c r="R10">
-        <v>0.050017385505</v>
-      </c>
-      <c r="S10">
-        <v>0.0001597744587043984</v>
-      </c>
-      <c r="T10">
-        <v>0.0001518448008371701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.5743975</v>
-      </c>
-      <c r="H11">
-        <v>1.148795</v>
-      </c>
-      <c r="I11">
-        <v>0.02443735465307048</v>
-      </c>
-      <c r="J11">
-        <v>0.01642536727720028</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.2421403333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.726421</v>
-      </c>
-      <c r="O11">
-        <v>0.1090845147039467</v>
-      </c>
-      <c r="P11">
-        <v>0.154239204841748</v>
-      </c>
-      <c r="Q11">
-        <v>0.1390848021158333</v>
-      </c>
-      <c r="R11">
-        <v>0.834508812695</v>
-      </c>
-      <c r="S11">
-        <v>0.002665736972978428</v>
-      </c>
-      <c r="T11">
-        <v>0.002533435588069039</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.5743975</v>
-      </c>
-      <c r="H12">
-        <v>1.148795</v>
-      </c>
-      <c r="I12">
-        <v>0.02443735465307048</v>
-      </c>
-      <c r="J12">
-        <v>0.01642536727720028</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.013551</v>
-      </c>
-      <c r="N12">
-        <v>0.04065299999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.006104741983312082</v>
-      </c>
-      <c r="P12">
-        <v>0.008631752653669953</v>
-      </c>
-      <c r="Q12">
-        <v>0.007783660522499999</v>
-      </c>
-      <c r="R12">
-        <v>0.046701963135</v>
-      </c>
-      <c r="S12">
-        <v>0.0001491837449116863</v>
-      </c>
-      <c r="T12">
-        <v>0.0001417797075824771</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.5743975</v>
-      </c>
-      <c r="H13">
-        <v>1.148795</v>
-      </c>
-      <c r="I13">
-        <v>0.02443735465307048</v>
-      </c>
-      <c r="J13">
-        <v>0.01642536727720028</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.9495455</v>
-      </c>
-      <c r="N13">
-        <v>3.899091</v>
-      </c>
-      <c r="O13">
-        <v>0.878272619159261</v>
-      </c>
-      <c r="P13">
-        <v>0.827884512487409</v>
-      </c>
-      <c r="Q13">
-        <v>1.11981406133625</v>
-      </c>
-      <c r="R13">
-        <v>4.479256245345001</v>
-      </c>
-      <c r="S13">
-        <v>0.02146265947647597</v>
-      </c>
-      <c r="T13">
-        <v>0.0135983071807116</v>
+        <v>0.005186309689220396</v>
       </c>
     </row>
   </sheetData>
